--- a/matlab/screening_study_results.xlsx
+++ b/matlab/screening_study_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAK Lab\SEAK Lab Github\VASSAR\VASSAR_exec_heur\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B3FB07-C267-4A08-84D9-74DF4145AF9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85A3D1-2268-49DC-84DD-381C3E99EEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{7DF06549-77F8-487E-BF3B-59237618C0B8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{7DF06549-77F8-487E-BF3B-59237618C0B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assigning Problem" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -270,10 +267,13 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,451 +590,647 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D03A6F6-5A35-445E-A736-E1B14019184F}">
   <dimension ref="C4:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="3:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="3:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="3:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
+      <c r="D9" s="8">
+        <v>7.6666666666666697E-3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.67591950479991E-3</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="3:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
+      <c r="D11" s="8">
+        <v>2.3333333333333301E-3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3.1622776601683798E-3</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="s">
+      <c r="D12" s="8">
+        <v>0.99533333333333396</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.8109134757052499E-3</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8" t="s">
+      <c r="D13" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.6101529717988301E-3</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="17" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C17" s="5" t="s">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="17" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="3:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="3:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
+      <c r="D21" s="8">
+        <v>4.31666666666667E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5.5804995572656399E-3</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="8" t="s">
+      <c r="D22" s="8">
+        <v>1.1333333333333299E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6.5168347993845299E-3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.20914275025594101</v>
+      </c>
+      <c r="G22" s="8">
+        <v>8.6492423607856E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8" t="s">
+      <c r="D23" s="8">
+        <v>5.8333333333333301E-3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4.98454401247955E-3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3.8421913580247498E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.8952996833225301E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
+      <c r="D24" s="8">
+        <v>0.143166666666667</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.1294261700419298E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.75408750000000002</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.44673355944838</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8" t="s">
+      <c r="D25" s="8">
+        <v>0.97233333333333305</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.92000514402603E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1.97266771475791E-3</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1.2314209857049299E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="8" t="s">
+      <c r="D26" s="8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1.95125790386802E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.32095700722436299</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.20686305132820099</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="30" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C30" s="5" t="s">
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.78260361111111498</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.36603469408704398</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="3:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="32" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="3:15" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="K33" s="3" t="s">
+      <c r="G33" s="14"/>
+      <c r="K33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="1" t="s">
+      <c r="M33" s="14"/>
+      <c r="N33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="4"/>
-      <c r="D34" s="11" t="s">
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="3"/>
+      <c r="D34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="11" t="s">
+      <c r="K34" s="3"/>
+      <c r="L34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
+    <row r="35" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="K35" s="3" t="s">
+      <c r="D35" s="2">
+        <v>7.6581236985768394E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.10930395055421301</v>
+      </c>
+      <c r="F35" s="2">
+        <v>5.8782412497994103E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.110373639112085</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
+      <c r="L35" s="2">
+        <v>0.198778976241096</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.212060079348278</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.16254293933490299</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.25577376658122702</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="D36" s="2">
+        <v>0.740710201607374</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5.3659771029173797E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.72244926376712104</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4.8522794620516202E-2</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+      <c r="L36" s="11">
+        <v>1.3184803270275E-80</v>
+      </c>
+      <c r="M36" s="11">
+        <v>3.4830208920335098E-80</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1.9047188491367199E-75</v>
+      </c>
+      <c r="O36" s="11">
+        <v>6.0231398166936103E-75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="K37" s="3" t="s">
+      <c r="D37" s="2">
+        <v>0.648226949535744</v>
+      </c>
+      <c r="E37" s="2">
+        <v>7.0797276220812097E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.62534832975616905</v>
+      </c>
+      <c r="G37" s="2">
+        <v>7.4683913859473205E-2</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
+      <c r="L37" s="11">
+        <v>2.6320166348882799E-49</v>
+      </c>
+      <c r="M37" s="11">
+        <v>8.2543682021187208E-49</v>
+      </c>
+      <c r="N37" s="11">
+        <v>4.0593196957162696E-40</v>
+      </c>
+      <c r="O37" s="11">
+        <v>1.2836695989238799E-39</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="K38" s="3" t="s">
+      <c r="D38" s="2">
+        <v>-0.152975300614069</v>
+      </c>
+      <c r="E38" s="2">
+        <v>9.6861160221642401E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-0.159885846975442</v>
+      </c>
+      <c r="G38" s="2">
+        <v>9.8728054453816994E-2</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="3" t="s">
+      <c r="L38" s="2">
+        <v>5.1344241243373001E-2</v>
+      </c>
+      <c r="M38" s="2">
+        <v>9.5779121875796194E-2</v>
+      </c>
+      <c r="N38" s="2">
+        <v>6.1723870368925203E-2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.13520142166735599</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="K39" s="3" t="s">
+      <c r="D39" s="2">
+        <v>0.64117641737229003</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7.9994419483691098E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.64950925810901805</v>
+      </c>
+      <c r="G39" s="2">
+        <v>7.3447383859573695E-2</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+      <c r="L39" s="11">
+        <v>1.78508178145932E-43</v>
+      </c>
+      <c r="M39" s="11">
+        <v>5.64492388257483E-43</v>
+      </c>
+      <c r="N39" s="11">
+        <v>1.1597991598092101E-49</v>
+      </c>
+      <c r="O39" s="11">
+        <v>3.6674801038666598E-49</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="K40" s="3" t="s">
+      <c r="D40" s="2">
+        <v>0.672743531213287</v>
+      </c>
+      <c r="E40" s="2">
+        <v>5.7455267014736598E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.66964488438622405</v>
+      </c>
+      <c r="G40" s="2">
+        <v>5.45476853223524E-2</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="44" spans="3:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C44" s="14" t="s">
+      <c r="L40" s="11">
+        <v>2.0480574869381E-58</v>
+      </c>
+      <c r="M40" s="11">
+        <v>5.9376081409012999E-58</v>
+      </c>
+      <c r="N40" s="11">
+        <v>4.0658725011780999E-58</v>
+      </c>
+      <c r="O40" s="11">
+        <v>9.5738185376314903E-58</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="7" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="3:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="3:15" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="8" t="s">
+    <row r="48" spans="3:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="3:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="8" t="s">
+      <c r="D48" s="8">
+        <v>9.3078601164717195E-2</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.153404802010013</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="3:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8" t="s">
+      <c r="D49" s="8">
+        <v>1.0007567990348101</v>
+      </c>
+      <c r="E49" s="8">
+        <v>7.92766264439691E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="3:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="8" t="s">
+      <c r="D50" s="8">
+        <v>0.87208882533042498</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.11357587818821301</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="3:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8" t="s">
+      <c r="D51" s="8">
+        <v>-0.21417831064869899</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.133386682092238</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="3:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="8" t="s">
+      <c r="D52" s="8">
+        <v>0.88303627596440304</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.114118851611515</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="D53" s="8">
+        <v>0.917762675362786</v>
+      </c>
+      <c r="E53" s="8">
+        <v>8.0103555038895893E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1051,627 +1247,627 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E153FDB-3BBB-4837-AA7F-3861C3BF3D93}">
   <dimension ref="C4:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="3:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="3:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="3:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="8" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>6.3E-2</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>1.19101575074325E-2</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="3:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>4.4666666666666702E-2</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>9.9628941206488398E-3</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="8" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>5.0333333333333299E-2</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>9.9938252541194907E-3</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="8" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>1.9717135494253898E-2</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="8" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>0.44166666666666698</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>2.3000268382760501E-2</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="8" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>1.6666666666666701E-2</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="17" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C17" s="5" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="17" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="3:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="7" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
+    <row r="21" spans="3:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>1.16666666666667E-2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>2.2222222222222201E-3</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>4.7894237906990003E-2</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>5.3943641979384997E-2</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>8.1946649347749798E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="8" t="s">
+    <row r="23" spans="3:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>0.19566666666666699</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>3.4104052834715799E-2</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>1.6864042541820001E-2</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>2.1728840648770901E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="8" t="s">
+    <row r="24" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>0.17016666666666699</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>5.0008949816291802E-2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>0.339264971139972</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0.27180801733076998</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="8" t="s">
+    <row r="25" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>0.92</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>1.1915339216403999E-2</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>3.0663260771217498E-3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>1.2067463566509401E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="8" t="s">
+    <row r="26" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>0.53416666666666701</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>2.5989670312702402E-2</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>7.6849360027493194E-2</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>0.21463696944417901</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="8" t="s">
+    <row r="27" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>1.16666666666667E-2</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>1.82855909821703E-18</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>0.29714218013467603</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>0.10936465748671501</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C30" s="5" t="s">
+    <row r="30" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:15" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
+    <row r="32" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="3:15" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="14"/>
+      <c r="F33" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="K33" s="3" t="s">
+      <c r="G33" s="14"/>
+      <c r="K33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="1" t="s">
+      <c r="M33" s="14"/>
+      <c r="N33" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="4"/>
-      <c r="D34" s="11" t="s">
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="3"/>
+      <c r="D34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="11" t="s">
+      <c r="K34" s="3"/>
+      <c r="L34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="3" t="s">
+    <row r="35" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0.241441505232149</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>6.1239284947314399E-2</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>0.36366319900380401</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>0.11219604772867101</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>9.8041340922177498E-5</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>3.0826055220167298E-4</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="2">
         <v>1.48314065609795E-4</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <v>4.6901025635390399E-4</v>
       </c>
     </row>
-    <row r="36" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
+    <row r="36" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>0.599546592195777</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>4.26560416235909E-2</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>0.80855356521492305</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>4.2899266026042202E-2</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>1.50385246919705E-43</v>
       </c>
-      <c r="M36" s="12">
+      <c r="M36" s="11">
         <v>4.7555990471903498E-43</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="11">
         <v>4.9454556618124797E-95</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="11">
         <v>1.5638903958702801E-94</v>
       </c>
     </row>
-    <row r="37" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+    <row r="37" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>0.39622858352857299</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>9.2897761129003206E-2</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>0.40154341300605401</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>0.10630537819822899</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="11">
         <v>4.9988773217201901E-8</v>
       </c>
-      <c r="M37" s="12">
+      <c r="M37" s="11">
         <v>1.58078367344101E-7</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="11">
         <v>1.5869298118216701E-6</v>
       </c>
-      <c r="O37" s="12">
+      <c r="O37" s="11">
         <v>5.0183126921243298E-6</v>
       </c>
     </row>
-    <row r="38" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>6.8219970895296203E-2</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>3.4532683772990402E-2</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>6.8154823037074097E-2</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>3.8726100228476897E-2</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>0.20640772018706099</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>0.25281228998043798</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>0.236740930835419</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <v>0.30031682442927898</v>
       </c>
     </row>
-    <row r="39" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="3" t="s">
+    <row r="39" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>0.207137467982111</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>2.8109124633252099E-2</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>0.376759002816138</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>5.6169906508066199E-2</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="11">
         <v>8.6017256132551007E-6</v>
       </c>
-      <c r="M39" s="12">
+      <c r="M39" s="11">
         <v>1.6286533343280001E-5</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="11">
         <v>1.7423804871971999E-15</v>
       </c>
-      <c r="O39" s="12">
+      <c r="O39" s="11">
         <v>2.9137147795195199E-15</v>
       </c>
     </row>
-    <row r="40" spans="3:15" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+    <row r="40" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>0.25880221662048097</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>6.1437572988516299E-2</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>0.27954259305127599</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>8.2959257725637198E-2</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="11">
         <v>9.2283956937338403E-7</v>
       </c>
-      <c r="M40" s="12">
+      <c r="M40" s="11">
         <v>2.5769614314657398E-6</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <v>2.19825718804777E-7</v>
       </c>
-      <c r="O40" s="12">
+      <c r="O40" s="11">
         <v>3.26780392815856E-7</v>
       </c>
     </row>
-    <row r="45" spans="3:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C45" s="14" t="s">
+    <row r="45" spans="3:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="3:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="7" t="s">
+    <row r="47" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="3:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="8" t="s">
+    <row r="49" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>0.58403175810133201</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>0.158130933005386</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="8" t="s">
+    <row r="50" spans="3:5" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>1.3677772810500799</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>0.12538572961275199</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="8" t="s">
+    <row r="51" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>0.77118792577403505</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>0.18741677896961301</v>
       </c>
     </row>
-    <row r="52" spans="3:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="8" t="s">
+    <row r="52" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>0.13206393628711799</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>7.0085367863953404E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="8" t="s">
+    <row r="53" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>0.56403804722487405</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>6.4160347393634895E-2</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="8" t="s">
+    <row r="54" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>0.51965552017459804</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>0.128482440596003</v>
       </c>
     </row>

--- a/matlab/screening_study_results.xlsx
+++ b/matlab/screening_study_results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAK Lab\SEAK Lab Github\VASSAR\VASSAR_exec_heur\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosha\Documents\SEAK Lab Github\VASSAR\VASSAR_exec_heur\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D85A3D1-2268-49DC-84DD-381C3E99EEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02C805-4909-42C5-83BF-A00D706DBF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{7DF06549-77F8-487E-BF3B-59237618C0B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7DF06549-77F8-487E-BF3B-59237618C0B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Assigning Problem" sheetId="1" r:id="rId1"/>
     <sheet name="Partitioning Problem" sheetId="2" r:id="rId2"/>
+    <sheet name="Partitioning Problem - Fuzzy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="31">
   <si>
     <t>Support values - Random</t>
   </si>
@@ -590,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D03A6F6-5A35-445E-A736-E1B14019184F}">
   <dimension ref="C4:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -1248,7 +1249,7 @@
   <dimension ref="C4:O54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1881,4 +1882,643 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ADD2FA-A86A-443D-B45B-BD6BBF4E8649}">
+  <dimension ref="C4:O54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="3:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.3151538425711399E-2</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="3:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.9333333333333299E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1.2746338133066699E-2</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E11" s="8">
+        <v>8.1649658092772595E-3</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1.8737959096740298E-2</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3.7843080813169797E-2</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.63333333333333E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.0540925533894601E-3</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="17" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="3:7" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1.03333333333333E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.53156097245447E-3</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="8">
+        <v>9.35E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.7890371206757099E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5.2345234069614201E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>8.0945264054134103E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.14733333333333301</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3.4660612006878297E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1.7077713477366401E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>2.1134131288827299E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.17933333333333301</v>
+      </c>
+      <c r="E24" s="8">
+        <v>6.3358669396179096E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.33755216931217102</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.27592769249466398</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.90066666666666695</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1.4786547105685E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3.83857891392174E-3</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1.3378534211156101E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.0679415123804498E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>7.2947027012840102E-2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.211698867446626</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E27" s="9">
+        <v>5.2704627669473004E-4</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.29337001322751399</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.106676163889122</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="3:15" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="3"/>
+      <c r="D34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.42993059741545497</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6.6988452054629596E-2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.52418549479188203</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.13317056950313799</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="11">
+        <v>3.1117545026935502E-16</v>
+      </c>
+      <c r="M35" s="11">
+        <v>9.8401864203710807E-16</v>
+      </c>
+      <c r="N35" s="11">
+        <v>1.7556890269176801E-20</v>
+      </c>
+      <c r="O35" s="11">
+        <v>4.2548480498250101E-20</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.54542315131972197</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.03174286258841E-2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.69964707979076401</v>
+      </c>
+      <c r="G36" s="2">
+        <v>3.3180207356428598E-2</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="11">
+        <v>6.8725453120398397E-44</v>
+      </c>
+      <c r="M36" s="11">
+        <v>1.7476083511946501E-43</v>
+      </c>
+      <c r="N36" s="11">
+        <v>1.52203585280569E-78</v>
+      </c>
+      <c r="O36" s="11">
+        <v>4.5081112375518401E-78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.48858617607517002</v>
+      </c>
+      <c r="E37" s="2">
+        <v>9.0239015997927094E-2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.477569855670751</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.119112481817092</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="11">
+        <v>4.1970694961224599E-23</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1.29072430662529E-22</v>
+      </c>
+      <c r="N37" s="11">
+        <v>1.5122104137683E-18</v>
+      </c>
+      <c r="O37" s="11">
+        <v>3.1532031588582199E-18</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3.7205037032429798E-2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4.4413064621772198E-2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>5.9825012224511004E-3</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2.9987906119582498E-2</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.29430050161665899</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.27242140889939598</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.55741123482980504</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0.24023609515730901</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.37557482462838299</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3.4481237530008903E-2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.53672496398118097</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8.9339106285330802E-2</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="11">
+        <v>5.4724011129106302E-15</v>
+      </c>
+      <c r="M39" s="11">
+        <v>1.73051373845341E-14</v>
+      </c>
+      <c r="N39" s="11">
+        <v>1.93805889771865E-20</v>
+      </c>
+      <c r="O39" s="11">
+        <v>6.1286803563446494E-20</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.32447301873268802</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7.9346981577047296E-2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.35699804042711197</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.102705085395413</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="11">
+        <v>3.9004339023115802E-8</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1.1179018279039601E-7</v>
+      </c>
+      <c r="N40" s="11">
+        <v>1.15562484943042E-6</v>
+      </c>
+      <c r="O40" s="11">
+        <v>3.6536361815351401E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="3:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0.94711531183682196</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.186512007815304</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.23801789992832</v>
+      </c>
+      <c r="E50" s="8">
+        <v>4.6138764883915502E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.95855176123993002</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.19555226414375401</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="8">
+        <v>4.21853833386562E-2</v>
+      </c>
+      <c r="E52" s="8">
+        <v>7.3102844896286198E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.90721289023178497</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.12036949507684</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.67703451110019397</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.176455533201239</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>